--- a/Project Outputs for maix_2/BOM/Bill of Materials-maix_2.xlsx
+++ b/Project Outputs for maix_2/BOM/Bill of Materials-maix_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\admin_2\Documents\GitHub\ElectronBot\micro_maix_II\Project Outputs for maix_2\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19BB318E-D3FC-4E97-8335-CEEADB2A71F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3348F0F5-C789-4B88-AC71-894AF6C69138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{75BDE8C9-65B7-4AFB-B56C-D0A62E6A2268}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{AB7F7102-88FF-4933-8793-9DF4B76898EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-maix_2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="106">
   <si>
     <t>Line #</t>
   </si>
@@ -272,13 +272,10 @@
     <t>R4, R6</t>
   </si>
   <si>
-    <t>Knowles Syfer</t>
-  </si>
-  <si>
-    <t>1812Y0500273KFR</t>
-  </si>
-  <si>
-    <t>DigiKey</t>
+    <t>Vishay Sfernice</t>
+  </si>
+  <si>
+    <t>P2TC0402D1002LNTA</t>
   </si>
   <si>
     <t>716-P2TC0402D1002LNTACT-ND</t>
@@ -311,7 +308,7 @@
     <t>TE Connectivity</t>
   </si>
   <si>
-    <t>9-2176306-1</t>
+    <t>RP73PF1E10KBTD</t>
   </si>
   <si>
     <t>A127415CT-ND</t>
@@ -752,7 +749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C8DEE4-9880-46D6-8219-07DBFBD1280F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26CBC93-C6A7-4EBC-A9DD-4B298D0508E5}">
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -910,7 +907,9 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -951,7 +950,9 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
@@ -992,7 +993,9 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
@@ -1019,7 +1022,9 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1046,7 +1051,9 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
@@ -1120,7 +1127,9 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>56</v>
       </c>
@@ -1281,26 +1290,30 @@
         <v>32</v>
       </c>
       <c r="L13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="N13" s="1">
+        <v>18.77</v>
+      </c>
+      <c r="O13" s="1">
+        <v>37.54</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2" t="s">
@@ -1311,10 +1324,10 @@
         <v>2</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>32</v>
@@ -1323,7 +1336,7 @@
         <v>23</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N14" s="1">
         <v>0.39</v>
@@ -1340,10 +1353,10 @@
         <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2" t="s">
@@ -1354,10 +1367,10 @@
         <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>32</v>
@@ -1366,7 +1379,7 @@
         <v>23</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N15" s="1">
         <v>0.61</v>
@@ -1376,15 +1389,17 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2" t="s">
@@ -1395,10 +1410,10 @@
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>22</v>
@@ -1407,7 +1422,7 @@
         <v>23</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N16" s="1">
         <v>2.15</v>
@@ -1417,15 +1432,17 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2" t="s">
@@ -1444,15 +1461,17 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="2" t="s">
@@ -1471,15 +1490,17 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2" t="s">

--- a/Project Outputs for maix_2/BOM/Bill of Materials-maix_2.xlsx
+++ b/Project Outputs for maix_2/BOM/Bill of Materials-maix_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\admin_2\Documents\GitHub\ElectronBot\micro_maix_II\Project Outputs for maix_2\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3348F0F5-C789-4B88-AC71-894AF6C69138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A67770DF-57F2-482E-AE1A-2B4ABD75DF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{AB7F7102-88FF-4933-8793-9DF4B76898EB}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{C001B30A-9A9D-425E-AB95-DFC3ACEF01C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-maix_2" sheetId="1" r:id="rId1"/>
@@ -173,6 +173,15 @@
     <t>J3</t>
   </si>
   <si>
+    <t>TF-01A</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Connector - Card Sockets 8 1.1mm SMD RoHS&lt;/b&gt;&lt;p&gt; Source: &lt;a href="https://datasheet.lcsc.com/szlcsc/1903221101_Korean-Hroparts-Elec-TF-01A_C91145.pdf"&gt; Datasheet &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
     <t>CAMERA_BTB</t>
   </si>
   <si>
@@ -330,15 +339,6 @@
   </si>
   <si>
     <t>RNCF0402TKY1K00CT-ND</t>
-  </si>
-  <si>
-    <t>TF-01A</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Connector - Card Sockets 8 1.1mm SMD RoHS&lt;/b&gt;&lt;p&gt; Source: &lt;a href="https://datasheet.lcsc.com/szlcsc/1903221101_Korean-Hroparts-Elec-TF-01A_C91145.pdf"&gt; Datasheet &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>TF CARD</t>
   </si>
   <si>
     <t>AMS1117-1.8</t>
@@ -749,7 +749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26CBC93-C6A7-4EBC-A9DD-4B298D0508E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B014687F-8C6D-4E90-8C7C-7613678D7517}">
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1092,85 +1092,67 @@
       <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1">
-        <v>2</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N10" s="1">
-        <v>0.45910000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="O10" s="1">
-        <v>0.45910000000000001</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1178,42 +1160,46 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="J11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
-        <v>2</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="M11" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="N11" s="1">
-        <v>0.52</v>
+        <v>0.45910000000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>1.04</v>
+        <v>0.45910000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1221,13 +1207,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
@@ -1238,10 +1224,10 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>32</v>
@@ -1250,13 +1236,13 @@
         <v>23</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N12" s="1">
-        <v>0.86</v>
+        <v>0.52</v>
       </c>
       <c r="O12" s="1">
-        <v>1.72</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1264,13 +1250,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2" t="s">
@@ -1281,10 +1267,10 @@
         <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>32</v>
@@ -1293,13 +1279,13 @@
         <v>23</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N13" s="1">
-        <v>18.77</v>
+        <v>0.86</v>
       </c>
       <c r="O13" s="1">
-        <v>37.54</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1307,13 +1293,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2" t="s">
@@ -1324,10 +1310,10 @@
         <v>2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>32</v>
@@ -1336,13 +1322,13 @@
         <v>23</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N14" s="1">
-        <v>0.39</v>
+        <v>18.77</v>
       </c>
       <c r="O14" s="1">
-        <v>0.78</v>
+        <v>37.54</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1350,13 +1336,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2" t="s">
@@ -1367,10 +1353,10 @@
         <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>32</v>
@@ -1379,13 +1365,13 @@
         <v>23</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N15" s="1">
-        <v>0.61</v>
+        <v>0.39</v>
       </c>
       <c r="O15" s="1">
-        <v>1.22</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1393,13 +1379,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2" t="s">
@@ -1407,28 +1393,28 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N16" s="1">
-        <v>2.15</v>
+        <v>0.61</v>
       </c>
       <c r="O16" s="1">
-        <v>2.15</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1436,13 +1422,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2" t="s">
@@ -1452,13 +1438,27 @@
       <c r="H17" s="1">
         <v>1</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="I17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">

--- a/Project Outputs for maix_2/BOM/Bill of Materials-maix_2.xlsx
+++ b/Project Outputs for maix_2/BOM/Bill of Materials-maix_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\admin_2\Documents\GitHub\ElectronBot\micro_maix_II\Project Outputs for maix_2\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A67770DF-57F2-482E-AE1A-2B4ABD75DF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0372C97-4A40-4B34-9EB7-0CCE5B8DC9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{C001B30A-9A9D-425E-AB95-DFC3ACEF01C6}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{A3F081B9-9FA1-4A99-8BFD-1548B1A2C2F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-maix_2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="106">
   <si>
     <t>Line #</t>
   </si>
@@ -749,7 +749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B014687F-8C6D-4E90-8C7C-7613678D7517}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E105305-0C6A-4E81-8E23-10E348A2B8FE}">
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -907,9 +907,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
@@ -950,9 +948,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
@@ -993,9 +989,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
@@ -1022,9 +1016,7 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1051,9 +1043,7 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
@@ -1080,9 +1070,7 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>48</v>
       </c>
@@ -1156,9 +1144,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>59</v>
       </c>
@@ -1418,9 +1404,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>95</v>
       </c>
@@ -1461,9 +1445,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>101</v>
       </c>
@@ -1490,9 +1472,7 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>104</v>
       </c>
